--- a/悖论模拟-整理后/悖论模拟/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟/悖论模拟干员名单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96549\Desktop\悖论模拟\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHOME\maa\悖论模拟-整理后\悖论模拟\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE619A2-A567-4339-B3C8-E1437CE60C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6736928A-CE20-4E55-B2A5-F66441CC85C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="2880" windowWidth="22200" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1252,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1261,6 +1261,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1545,38 +1548,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>98</v>
@@ -1876,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>100</v>
@@ -1976,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>108</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>140</v>
@@ -2376,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>142</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>187</v>
@@ -2476,7 +2479,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2576,18 +2579,18 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>113</v>
@@ -2599,7 +2602,7 @@
         <v>145</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>190</v>
@@ -2626,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -2726,12 +2729,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>58</v>
@@ -2776,7 +2779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2793,13 +2796,13 @@
         <v>117</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>194</v>
@@ -2826,7 +2829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
         <v>64</v>
       </c>
@@ -3034,12 +3037,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>123</v>
@@ -3066,7 +3069,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>67</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
         <v>68</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
         <v>69</v>
       </c>
@@ -3170,12 +3173,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D36" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>160</v>
@@ -3190,12 +3193,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>161</v>
@@ -3210,7 +3213,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
         <v>72</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>162</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>207</v>
@@ -3230,7 +3233,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
         <v>73</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
         <v>74</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
         <v>75</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
         <v>76</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D43" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>78</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>79</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D46" s="1" t="s">
         <v>80</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D47" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
         <v>82</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>83</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
         <v>84</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
         <v>85</v>
       </c>
@@ -3394,15 +3397,15 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="1" t="s">
         <v>87</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
         <v>88</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="1" t="s">
         <v>89</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="1" t="s">
         <v>90</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
         <v>91</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
         <v>92</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
         <v>93</v>
       </c>

--- a/悖论模拟-整理后/悖论模拟/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟/悖论模拟干员名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHOME\maa\悖论模拟-整理后\悖论模拟\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6736928A-CE20-4E55-B2A5-F66441CC85C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D24EF7-4096-4759-9B59-ACC5AF2C6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="2880" windowWidth="22200" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2445" yWindow="3780" windowWidth="22200" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="297">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1203,6 +1203,10 @@
   </si>
   <si>
     <t>火哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1548,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1720,7 +1724,7 @@
         <v>237</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>264</v>
@@ -2046,7 +2050,7 @@
         <v>102</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>134</v>
@@ -2070,7 +2074,7 @@
         <v>244</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>271</v>
@@ -2126,7 +2130,7 @@
         <v>272</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -2145,8 +2149,8 @@
       <c r="G12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
+      <c r="H12" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>136</v>
@@ -2220,7 +2224,7 @@
         <v>247</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>274</v>
@@ -2308,7 +2312,7 @@
         <v>184</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>223</v>
@@ -2458,7 +2462,7 @@
         <v>187</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>226</v>
@@ -2470,7 +2474,7 @@
         <v>252</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>279</v>
@@ -2508,7 +2512,7 @@
         <v>188</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>227</v>
@@ -2664,7 +2668,7 @@
         <v>230</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>256</v>
@@ -2708,13 +2712,13 @@
         <v>192</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>231</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>257</v>
@@ -2864,7 +2868,7 @@
         <v>234</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>260</v>
@@ -3028,7 +3032,7 @@
         <v>199</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>291</v>

--- a/悖论模拟-整理后/悖论模拟/悖论模拟干员名单.xlsx
+++ b/悖论模拟-整理后/悖论模拟/悖论模拟干员名单.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHOME\maa\悖论模拟-整理后\悖论模拟\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D24EF7-4096-4759-9B59-ACC5AF2C6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951E641D-65B3-4B32-B279-D6CF2B5E1346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2445" yWindow="3780" windowWidth="22200" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="3810" windowWidth="22200" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1552,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1720,7 +1715,7 @@
       <c r="Q3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="4" t="s">
         <v>237</v>
       </c>
       <c r="T3" s="1">
@@ -1840,7 +1835,7 @@
       <c r="B6" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="1">
@@ -2070,7 +2065,7 @@
       <c r="Q10" s="1">
         <v>2</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="4" t="s">
         <v>244</v>
       </c>
       <c r="T10" s="1">
@@ -2220,7 +2215,7 @@
       <c r="Q13" s="1">
         <v>1</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="4" t="s">
         <v>247</v>
       </c>
       <c r="T13" s="1">
@@ -2452,13 +2447,13 @@
       <c r="H18" s="1">
         <v>2</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>187</v>
       </c>
       <c r="N18" s="1">
@@ -2470,7 +2465,7 @@
       <c r="Q18" s="1">
         <v>2</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="4" t="s">
         <v>252</v>
       </c>
       <c r="T18" s="1">
@@ -2508,7 +2503,7 @@
       <c r="K19" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="4" t="s">
         <v>188</v>
       </c>
       <c r="N19" s="1">
@@ -2602,7 +2597,7 @@
       <c r="H21" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>145</v>
       </c>
       <c r="K21" s="1">
@@ -2708,7 +2703,7 @@
       <c r="K23" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="4" t="s">
         <v>192</v>
       </c>
       <c r="N23" s="1">
@@ -2796,13 +2791,13 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>117</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>149</v>
       </c>
       <c r="K25" s="1">
@@ -2864,7 +2859,7 @@
       <c r="N26" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P26" s="4" t="s">
         <v>234</v>
       </c>
       <c r="Q26" s="1">
@@ -3028,7 +3023,7 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="4" t="s">
         <v>199</v>
       </c>
       <c r="N30" s="1">
@@ -3198,7 +3193,7 @@
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E37" s="1">
@@ -3224,7 +3219,7 @@
       <c r="E38" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>162</v>
       </c>
       <c r="K38" s="1">
@@ -3402,7 +3397,7 @@
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E52" s="1">
